--- a/paper_templates/APD07_template.xlsx
+++ b/paper_templates/APD07_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\SnowBall\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19491C2B-3164-40CE-A59E-A8438AD9F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5156BD1E-BBA5-4178-805C-5242815A439E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{F732F106-ABF5-44CD-A6D3-A40F7A4596C3}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>시스템ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Data 변경(Query)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4903BADF-1553-49ED-85ED-4B040AB63969}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,18 +473,15 @@
     <col min="2" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
